--- a/perceptron/pEntregar/input.xlsx
+++ b/perceptron/pEntregar/input.xlsx
@@ -55,34 +55,34 @@
     <t xml:space="preserve">w</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
+    <t xml:space="preserve">-0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40</t>
   </si>
 </sst>
 </file>
@@ -186,12 +186,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
